--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
     <sheet name="02.일정" sheetId="2" r:id="rId2"/>
     <sheet name="03.가전가구" sheetId="3" r:id="rId3"/>
-    <sheet name="04.드레스룸" sheetId="4" r:id="rId4"/>
+    <sheet name="04.이사구조" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.일정'!$B$2:$G$2</definedName>
@@ -1156,71 +1156,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1245,105 +1245,46 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>131445</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="직사각형 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="655320" y="350520"/>
-          <a:ext cx="10767060" cy="9944100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>4234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="그룹 3"/>
+        <xdr:cNvPr id="57" name="그룹 56"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7437120" y="213360"/>
-          <a:ext cx="3421380" cy="4434840"/>
-          <a:chOff x="647700" y="327660"/>
-          <a:chExt cx="3421380" cy="4434840"/>
+          <a:off x="131445" y="152401"/>
+          <a:ext cx="10420138" cy="7520517"/>
+          <a:chOff x="131445" y="152401"/>
+          <a:chExt cx="10420138" cy="7520517"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="직사각형 1"/>
+          <xdr:cNvPr id="55" name="직사각형 54"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="647700" y="327660"/>
-            <a:ext cx="3421380" cy="4434840"/>
+            <a:off x="131445" y="163408"/>
+            <a:ext cx="10420138" cy="7488342"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
             </a:schemeClr>
           </a:solidFill>
         </xdr:spPr>
@@ -1374,15 +1315,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2"/>
+          <xdr:cNvPr id="5" name="직사각형 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="401955" y="3023235"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm>
+            <a:off x="137584" y="1830917"/>
+            <a:ext cx="2137833" cy="63500"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -1411,199 +1352,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="그룹 7"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="701040" y="3954780"/>
-            <a:ext cx="655320" cy="198120"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>50</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="그룹 8"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1036320" y="3246120"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="모서리가 둥근 직사각형 11"/>
+          <xdr:cNvPr id="76" name="직사각형 75"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="417195" y="1720215"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm>
+            <a:off x="141816" y="4142317"/>
+            <a:ext cx="2137833" cy="63500"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -1632,245 +1391,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="그룹 12"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1051560" y="1943100"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="14" name="직선 화살표 연결선 13"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 15"/>
+          <xdr:cNvPr id="77" name="직사각형 76"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="668655" y="348615"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm rot="5400000">
+            <a:off x="2512483" y="1401237"/>
+            <a:ext cx="2535767" cy="59266"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="그룹 16"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="662940" y="960120"/>
-            <a:ext cx="1234440" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="TextBox 18"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>80</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="모서리가 둥근 직사각형 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2009774" y="348615"/>
-            <a:ext cx="1495425" cy="674370"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -1899,236 +1430,19 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="그룹 20"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2004060" y="967740"/>
-            <a:ext cx="1524000" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="22" name="직선 화살표 연결선 21"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="TextBox 22"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>120</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="27" name="그룹 26"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3409950" y="567690"/>
-            <a:ext cx="708660" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="28" name="직선 화살표 연결선 27"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="TextBox 28"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="840252" y="4343400"/>
-              <a:ext cx="333228" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>606</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="그룹 29"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="167640" y="5638800"/>
-          <a:ext cx="3421380" cy="4434840"/>
-          <a:chOff x="647700" y="327660"/>
-          <a:chExt cx="3421380" cy="4434840"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30"/>
+          <xdr:cNvPr id="102" name="직사각형 101"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="647700" y="327660"/>
-            <a:ext cx="3421380" cy="4434840"/>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="1916643" y="2191809"/>
+            <a:ext cx="785281" cy="59267"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -2157,15 +1471,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="모서리가 둥근 직사각형 31"/>
+          <xdr:cNvPr id="103" name="직사각형 102"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="401955" y="3023235"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="1889127" y="3772959"/>
+            <a:ext cx="785281" cy="59267"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -2194,199 +1508,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="33" name="그룹 32"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="701040" y="3954780"/>
-            <a:ext cx="655320" cy="198120"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="52" name="직선 화살표 연결선 51"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="TextBox 52"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>50</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="그룹 33"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1036320" y="3246120"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="50" name="직선 화살표 연결선 49"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="TextBox 50"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="모서리가 둥근 직사각형 34"/>
+          <xdr:cNvPr id="104" name="직사각형 103"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="417195" y="1720215"/>
-            <a:ext cx="1249680" cy="674370"/>
+            <a:off x="1907236" y="5880221"/>
+            <a:ext cx="3486151" cy="65375"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -2415,245 +1547,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="그룹 35"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1051560" y="1943100"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="직선 화살표 연결선 47"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="TextBox 48"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="모서리가 둥근 직사각형 36"/>
+          <xdr:cNvPr id="105" name="직사각형 104"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="668655" y="348615"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm>
+            <a:off x="3289301" y="4157134"/>
+            <a:ext cx="393700" cy="76199"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="38" name="그룹 37"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="662940" y="960120"/>
-            <a:ext cx="1234440" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="46" name="직선 화살표 연결선 45"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="TextBox 46"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>80</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="모서리가 둥근 직사각형 38"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2009774" y="348615"/>
-            <a:ext cx="1495425" cy="674370"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -2682,236 +1586,19 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="40" name="그룹 39"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2004060" y="967740"/>
-            <a:ext cx="1524000" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="44" name="직선 화살표 연결선 43"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="TextBox 44"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>120</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="그룹 40"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3409950" y="567690"/>
-            <a:ext cx="708660" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="직선 화살표 연결선 41"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="TextBox 42"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="840252" y="4343400"/>
-              <a:ext cx="333228" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>606</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="그룹 77"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7414260" y="5631180"/>
-          <a:ext cx="3421380" cy="4434840"/>
-          <a:chOff x="647700" y="327660"/>
-          <a:chExt cx="3421380" cy="4434840"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="직사각형 78"/>
+          <xdr:cNvPr id="106" name="직사각형 105"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="647700" y="327660"/>
-            <a:ext cx="3421380" cy="4434840"/>
+            <a:off x="5084232" y="946150"/>
+            <a:ext cx="2137833" cy="63500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -2940,15 +1627,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="모서리가 둥근 직사각형 79"/>
+          <xdr:cNvPr id="107" name="직사각형 106"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="401955" y="3023235"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="5686544" y="1694272"/>
+            <a:ext cx="3149600" cy="65858"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -2977,199 +1664,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="81" name="그룹 80"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="701040" y="3954780"/>
-            <a:ext cx="655320" cy="198120"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="100" name="직선 화살표 연결선 99"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="TextBox 100"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>50</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="82" name="그룹 81"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1036320" y="3246120"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="98" name="직선 화살표 연결선 97"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="99" name="TextBox 98"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="모서리가 둥근 직사각형 82"/>
+          <xdr:cNvPr id="108" name="직사각형 107"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="417195" y="1720215"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm>
+            <a:off x="7236883" y="3246965"/>
+            <a:ext cx="393700" cy="65617"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -3198,245 +1703,17 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="84" name="그룹 83"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="1051560" y="1943100"/>
-            <a:ext cx="1219200" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="96" name="직선 화살표 연결선 95"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="TextBox 96"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="932116" y="4343400"/>
-              <a:ext cx="241363" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>76</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="모서리가 둥근 직사각형 84"/>
+          <xdr:cNvPr id="109" name="직사각형 108"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="668655" y="348615"/>
-            <a:ext cx="1249680" cy="674370"/>
+          <a:xfrm>
+            <a:off x="8401050" y="3215216"/>
+            <a:ext cx="2137833" cy="63500"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="86" name="그룹 85"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="662940" y="960120"/>
-            <a:ext cx="1234440" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="94" name="직선 화살표 연결선 93"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95" name="TextBox 94"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>80</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="모서리가 둥근 직사각형 86"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="2009774" y="348615"/>
-            <a:ext cx="1495425" cy="674370"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -3465,190 +1742,2905 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="88" name="그룹 87"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="직사각형 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="5478050" y="5863288"/>
+            <a:ext cx="3486151" cy="65375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="직사각형 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7209365" y="4140201"/>
+            <a:ext cx="393700" cy="76199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="직사각형 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="3661457" y="7101538"/>
+            <a:ext cx="3521013" cy="65375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="직사각형 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="7189940" y="7105770"/>
+            <a:ext cx="3351060" cy="69729"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="직사각형 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="2004060" y="967740"/>
-            <a:ext cx="1524000" cy="259080"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
+            <a:off x="8415866" y="4129616"/>
+            <a:ext cx="897467" cy="71968"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="92" name="직선 화살표 연결선 91"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="TextBox 92"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="845820" y="4343400"/>
-              <a:ext cx="327660" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="TextBox 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1132417" y="645583"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>120</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="89" name="그룹 88"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="3409950" y="567690"/>
-            <a:ext cx="708660" cy="274320"/>
-            <a:chOff x="678180" y="4343400"/>
-            <a:chExt cx="655320" cy="198120"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>현관</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="TextBox 114"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="321733" y="2650066"/>
+            <a:ext cx="1598083" cy="518584"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="90" name="직선 화살표 연결선 89"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="678180" y="4541520"/>
-              <a:ext cx="655320" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="TextBox 90"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="840252" y="4343400"/>
-              <a:ext cx="333228" cy="182880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-                <a:t>606</a:t>
-              </a:r>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>화장실</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="TextBox 115"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="982133" y="5564716"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>서재</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="TextBox 116"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8214783" y="1346200"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>드레스룸</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="TextBox 117"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8123767" y="5340350"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>안방</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="TextBox 118"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4529667" y="7154334"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>베란다</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="TextBox 120"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4718051" y="4887384"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>거실</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="TextBox 121"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4669367" y="1631951"/>
+            <a:ext cx="1598083" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>주방</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="직사각형 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3814445" y="946151"/>
+            <a:ext cx="393700" cy="65617"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="직사각형 126"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="8740781" y="3681943"/>
+            <a:ext cx="861481" cy="50799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9842499" y="4138083"/>
+            <a:ext cx="704849" cy="69849"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="TextBox 128"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9247716" y="3469216"/>
+            <a:ext cx="1198034" cy="518584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>화장실</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="직사각형 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2241762" y="1828801"/>
+            <a:ext cx="393700" cy="65617"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="직사각형 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3410162" y="1843618"/>
+            <a:ext cx="393700" cy="65617"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>649818</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>78318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="TextBox 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8121651" y="7190318"/>
+          <a:ext cx="1598083" cy="518584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>베란다</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="모서리가 둥근 직사각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7270751" y="4889499"/>
+          <a:ext cx="1375833" cy="2211917"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>침대</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="모서리가 둥근 직사각형 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="4703232"/>
+          <a:ext cx="804333" cy="2387601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>장롱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247862</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385445</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="모서리가 둥근 직사각형 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719195" y="4624917"/>
+          <a:ext cx="804333" cy="1164167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>소파</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205318</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="모서리가 둥근 직사각형 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676651" y="5808132"/>
+          <a:ext cx="804333" cy="975785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책꽂이</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220345</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357928</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="모서리가 둥근 직사각형 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6358678" y="4353984"/>
+          <a:ext cx="804333" cy="2006600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TV</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>다이</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>378884</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127002</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="모서리가 둥근 직사각형 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6379634" y="6436783"/>
+          <a:ext cx="804333" cy="654052"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>에어컨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>499534</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>141819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="모서리가 둥근 직사각형 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3833284" y="228600"/>
+          <a:ext cx="804333" cy="654052"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>세탁기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397935</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="모서리가 둥근 직사각형 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3869268" y="1132417"/>
+          <a:ext cx="999066" cy="740834"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>김치냉장고</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52918</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="모서리가 둥근 직사각형 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191251" y="1094316"/>
+          <a:ext cx="1005416" cy="654052"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>냉장고</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8679</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146262</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>131235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="모서리가 둥근 직사각형 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146262" y="4597401"/>
+          <a:ext cx="804333" cy="1164167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책상</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>86783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="모서리가 둥근 직사각형 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167218" y="4235450"/>
+          <a:ext cx="1388532" cy="325968"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책꽂이</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2329</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139912</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="모서리가 둥근 직사각형 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139912" y="5786968"/>
+          <a:ext cx="804333" cy="1164167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책상</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="모서리가 둥근 직사각형 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="143934" y="7143749"/>
+          <a:ext cx="804333" cy="505885"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>35982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="모서리가 둥근 직사각형 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068917" y="7147982"/>
+          <a:ext cx="1164166" cy="505885"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>미니장롱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135467</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="모서리가 둥근 직사각형 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889250" y="6659032"/>
+          <a:ext cx="717550" cy="975785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>캐비넷</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="모서리가 둥근 직사각형 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2899833" y="5626098"/>
+          <a:ext cx="711201" cy="975785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책꽂이</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122768</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="모서리가 둥근 직사각형 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2889250" y="4614332"/>
+          <a:ext cx="704851" cy="975785"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163196</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="모서리가 둥근 직사각형 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634279" y="173567"/>
+          <a:ext cx="884555" cy="325968"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>453178</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="모서리가 둥근 직사각형 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2591011" y="177800"/>
+          <a:ext cx="1102572" cy="325968"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>철제선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395817</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="모서리가 둥근 직사각형 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6195484" y="1987548"/>
+          <a:ext cx="1005416" cy="1314451"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>식탁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243417</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="모서리가 둥근 직사각형 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="2518834"/>
+          <a:ext cx="973667" cy="675220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>화장대</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>592668</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>370418</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="모서리가 둥근 직사각형 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10064751" y="2529417"/>
+          <a:ext cx="444500" cy="664636"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>18 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>427568</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205318</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="모서리가 둥근 직사각형 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566151" y="2533650"/>
+          <a:ext cx="444500" cy="664636"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>264583</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="모서리가 둥근 직사각형 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7302499" y="169333"/>
+          <a:ext cx="1100667" cy="624417"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>캐비넷</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510330</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="모서리가 둥근 직사각형 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315413" y="1087969"/>
+          <a:ext cx="681354" cy="855132"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>캐비넷</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="모서리가 둥근 직사각형 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7330230" y="2002370"/>
+          <a:ext cx="681354" cy="855132"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>캐비넷</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302896</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="모서리가 둥근 직사각형 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8441479" y="160869"/>
+          <a:ext cx="1379853" cy="601131"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill prst="wdUpDiag">
+          <a:fgClr>
+            <a:srgbClr val="92D050"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent5"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>수납선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3919,57 +4911,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.69921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.8984375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="K2" s="55" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="K2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3977,19 +4969,19 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="62">
         <v>30500</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3997,19 +4989,19 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="62">
         <v>5500</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
       <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4017,21 +5009,21 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="58">
         <v>3000</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4040,22 +5032,22 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="62">
         <f>C4-C5-C6</f>
         <v>22000</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
       <c r="K7" s="3" t="s">
         <v>146</v>
       </c>
@@ -4064,146 +5056,146 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="55">
         <v>4154</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="K8" s="18"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="55">
         <v>2650</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
       <c r="K9" s="18"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="55">
         <v>400</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
       <c r="K10" s="18"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="71">
         <f>C6+C7+C8+C9+C10</f>
         <v>32204</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D11" s="72"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="71">
         <v>14000</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D12" s="72"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="71">
         <v>3800</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D13" s="72"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="73">
         <f>C11+C12</f>
         <v>46204</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="57" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="57" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="57"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="76"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="16" t="s">
         <v>40</v>
       </c>
@@ -4216,10 +5208,10 @@
       <c r="H18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="57"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
       <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
@@ -4242,9 +5234,9 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +5257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +5279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>10</v>
       </c>
@@ -4311,7 +5303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +5327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -4356,7 +5348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -4377,7 +5369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -4398,7 +5390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -4419,7 +5411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -4438,7 +5430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>9</v>
       </c>
@@ -4465,25 +5457,25 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="55" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="59">
+      <c r="C30" s="75"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="64">
         <f>SUM(E29:G29)-H29</f>
         <v>1259</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4492,23 +5484,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="I17:I19"/>
@@ -4525,6 +5500,23 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4537,25 +5529,25 @@
   <dimension ref="B2:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="102.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="27.19921875" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="102.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
@@ -4575,7 +5567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="48" t="s">
         <v>68</v>
       </c>
@@ -4589,7 +5581,7 @@
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="48" t="s">
         <v>69</v>
       </c>
@@ -4603,7 +5595,7 @@
       </c>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
         <v>70</v>
       </c>
@@ -4617,7 +5609,7 @@
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
         <v>71</v>
       </c>
@@ -4631,7 +5623,7 @@
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="48" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +5637,7 @@
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>142</v>
       </c>
@@ -4659,7 +5651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>142</v>
       </c>
@@ -4671,7 +5663,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -4679,7 +5671,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -4687,7 +5679,7 @@
       <c r="F11" s="54"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4695,7 +5687,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -4703,7 +5695,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>141</v>
       </c>
@@ -4717,7 +5709,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -4725,7 +5717,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -4733,7 +5725,7 @@
       <c r="F16" s="54"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>120</v>
       </c>
@@ -4747,7 +5739,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="30"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
@@ -4759,7 +5751,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="33"/>
       <c r="D19" s="32" t="s">
@@ -4771,7 +5763,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="32" t="s">
@@ -4783,7 +5775,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="30"/>
       <c r="C21" s="33"/>
       <c r="D21" s="32"/>
@@ -4791,7 +5783,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>143</v>
       </c>
@@ -4805,7 +5797,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -4813,7 +5805,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>58</v>
       </c>
@@ -4829,7 +5821,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="32" t="s">
         <v>77</v>
@@ -4845,7 +5837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
@@ -4857,7 +5849,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
@@ -4869,7 +5861,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32" t="s">
@@ -4883,7 +5875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="32" t="s">
         <v>78</v>
@@ -4897,7 +5889,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="30"/>
       <c r="C30" s="32" t="s">
         <v>84</v>
@@ -4911,7 +5903,7 @@
       <c r="F30" s="54"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
@@ -4923,7 +5915,7 @@
       <c r="F31" s="54"/>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32" t="s">
@@ -4935,7 +5927,7 @@
       <c r="F32" s="54"/>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32" t="s">
@@ -4947,7 +5939,7 @@
       <c r="F33" s="54"/>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="30"/>
       <c r="C34" s="32" t="s">
         <v>85</v>
@@ -4961,7 +5953,7 @@
       <c r="F34" s="54"/>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="30"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32" t="s">
@@ -4973,7 +5965,7 @@
       <c r="F35" s="54"/>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
@@ -4985,7 +5977,7 @@
       <c r="F36" s="54"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
       <c r="C37" s="32" t="s">
         <v>90</v>
@@ -4999,7 +5991,7 @@
       <c r="F37" s="54"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32" t="s">
@@ -5011,7 +6003,7 @@
       <c r="F38" s="54"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
       <c r="C39" s="32" t="s">
         <v>96</v>
@@ -5025,7 +6017,7 @@
       <c r="F39" s="54"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
       <c r="C40" s="32" t="s">
         <v>99</v>
@@ -5041,7 +6033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32" t="s">
@@ -5053,7 +6045,7 @@
       <c r="F41" s="54"/>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
       <c r="C42" s="32" t="s">
         <v>101</v>
@@ -5067,7 +6059,7 @@
       <c r="F42" s="54"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
       <c r="C43" s="42">
         <v>0.70833333333333337</v>
@@ -5081,7 +6073,7 @@
       <c r="F43" s="54"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5089,7 +6081,7 @@
       <c r="F44" s="54"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -5097,7 +6089,7 @@
       <c r="F45" s="54"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -5105,7 +6097,7 @@
       <c r="F46" s="54"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -5113,7 +6105,7 @@
       <c r="F47" s="54"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -5121,7 +6113,7 @@
       <c r="F48" s="54"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -5146,21 +6138,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.8984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
@@ -5174,7 +6166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>53</v>
       </c>
@@ -5186,7 +6178,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>121</v>
       </c>
@@ -5196,7 +6188,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
         <v>122</v>
       </c>
@@ -5206,7 +6198,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>133</v>
       </c>
@@ -5216,7 +6208,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>123</v>
       </c>
@@ -5226,7 +6218,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>124</v>
       </c>
@@ -5236,7 +6228,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>125</v>
       </c>
@@ -5246,7 +6238,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>128</v>
       </c>
@@ -5256,7 +6248,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
@@ -5268,7 +6260,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>137</v>
       </c>
@@ -5280,7 +6272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>138</v>
       </c>
@@ -5290,7 +6282,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>130</v>
       </c>
@@ -5300,7 +6292,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>134</v>
       </c>
@@ -5310,7 +6302,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -5322,7 +6314,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>127</v>
       </c>
@@ -5332,7 +6324,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>139</v>
       </c>
@@ -5342,7 +6334,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>129</v>
       </c>
@@ -5354,61 +6346,61 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
         <v>52</v>
       </c>
@@ -5436,20 +6428,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -502,10 +502,6 @@
   </si>
   <si>
     <t>살던곳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두사람신분증, 두사람인감도장, 매매계약서, 인감증명서, 재직증명서(계약서?), …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +735,61 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">담당자) 국민은행 박정민(010-9350-8402)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;본인서류&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신분증앞면카피, 인감도장, 인감증명서(본인발급분), 주민등록등본, 대출물건지 전입세대열람내역(계약서지참 주민센터발급), 본건매매계약서(카피), 건물등기부등본(카피)
+2018~2019사업소득원천징수.직인, 재직증명서.직인
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;배우자서류&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 신분증앞면카피, 인감도장, 인감증명서(본인발급분), 국민은행통장보유필수.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,14 +1207,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1171,56 +1267,14 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="131445" y="152401"/>
-          <a:ext cx="10420138" cy="7520517"/>
+          <a:off x="131445" y="173567"/>
+          <a:ext cx="10314305" cy="8578851"/>
           <a:chOff x="131445" y="152401"/>
           <a:chExt cx="10420138" cy="7520517"/>
         </a:xfrm>
@@ -2708,15 +2762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>243417</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110065</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2725,8 +2779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="4703232"/>
-          <a:ext cx="804333" cy="2387601"/>
+          <a:off x="9677400" y="5079998"/>
+          <a:ext cx="728133" cy="2726269"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2915,7 +2969,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3079,7 +3133,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3454,7 +3508,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>8 </a:t>
+            <a:t>9 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -3601,7 +3655,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>9 </a:t>
+            <a:t>10 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -3673,7 +3727,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10 </a:t>
+            <a:t>11 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -3745,7 +3799,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>12</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3766,15 +3820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>143931</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139701</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3783,8 +3837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2899833" y="5626098"/>
-          <a:ext cx="711201" cy="975785"/>
+          <a:off x="2838450" y="6002864"/>
+          <a:ext cx="704851" cy="778936"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3820,7 +3874,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12</a:t>
+            <a:t>14</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3848,8 +3902,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>122768</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3858,8 +3912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2889250" y="4614332"/>
-          <a:ext cx="704851" cy="975785"/>
+          <a:off x="2853267" y="5270498"/>
+          <a:ext cx="698501" cy="690035"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3895,7 +3949,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>15</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3970,7 +4024,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14 </a:t>
+            <a:t>17 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -4042,7 +4096,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>15 </a:t>
+            <a:t>16 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -4114,7 +4168,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>16</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4189,7 +4243,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>17 </a:t>
+            <a:t>19 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -4261,7 +4315,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>18 </a:t>
+            <a:t>20 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -4333,7 +4387,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>19 </a:t>
+            <a:t>18</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
@@ -4405,7 +4459,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>20</a:t>
+            <a:t>21</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4481,18 +4535,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>캐비넷</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4556,18 +4605,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>캐비넷</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4637,6 +4681,81 @@
               </a:solidFill>
             </a:rPr>
             <a:t>수납선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86783</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131234</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="모서리가 둥근 직사각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2855383" y="6798735"/>
+          <a:ext cx="704851" cy="745066"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>책꽂이</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4915,53 +5034,53 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.8984375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="K2" s="60" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="K2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="76" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
@@ -4969,19 +5088,19 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="75">
         <v>30500</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4989,19 +5108,19 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="75">
         <v>5500</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
       <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5009,21 +5128,21 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="73">
         <v>3000</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5032,170 +5151,170 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="75">
         <f>C4-C5-C6</f>
         <v>22000</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
       <c r="K7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7" s="34">
         <f>L3-(L4+L5)</f>
         <v>32200</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="66">
         <v>4154</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
       <c r="K8" s="18"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="66">
         <v>2650</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="K9" s="18"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="66">
         <v>400</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="K10" s="18"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="68">
         <f>C6+C7+C8+C9+C10</f>
         <v>32204</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="69"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="68">
         <v>14000</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="69"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="68">
         <v>3800</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="69"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="70">
         <f>C11+C12</f>
         <v>46204</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="76" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="76" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="76" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76" t="s">
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="57"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="16" t="s">
         <v>40</v>
       </c>
@@ -5208,10 +5327,10 @@
       <c r="H18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="76"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="57"/>
       <c r="C19" s="16" t="s">
         <v>37</v>
       </c>
@@ -5234,9 +5353,9 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="I19" s="76"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
         <v>11</v>
       </c>
@@ -5257,7 +5376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
@@ -5279,7 +5398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>10</v>
       </c>
@@ -5303,7 +5422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
@@ -5327,7 +5446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
@@ -5348,7 +5467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
@@ -5369,7 +5488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -5390,7 +5509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -5411,7 +5530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -5430,7 +5549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="21" t="s">
         <v>9</v>
       </c>
@@ -5457,25 +5576,25 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64">
+      <c r="C30" s="72"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="59">
         <f>SUM(E29:G29)-H29</f>
         <v>1259</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -5484,6 +5603,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="I17:I19"/>
@@ -5500,23 +5636,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5528,26 +5647,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="102.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="0.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="84.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="53.09765625" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
@@ -5561,13 +5680,13 @@
         <v>44</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="48" t="s">
         <v>68</v>
       </c>
@@ -5577,11 +5696,11 @@
         <v>46</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>69</v>
       </c>
@@ -5591,11 +5710,11 @@
         <v>43</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
         <v>70</v>
       </c>
@@ -5605,11 +5724,11 @@
         <v>49</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
         <v>71</v>
       </c>
@@ -5619,11 +5738,11 @@
         <v>48</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>57</v>
       </c>
@@ -5633,13 +5752,13 @@
         <v>47</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -5647,13 +5766,13 @@
         <v>51</v>
       </c>
       <c r="F8" s="54"/>
-      <c r="G8" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -5663,7 +5782,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -5671,7 +5790,7 @@
       <c r="F10" s="54"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="30"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -5679,7 +5798,7 @@
       <c r="F11" s="54"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -5687,7 +5806,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -5695,9 +5814,9 @@
       <c r="F13" s="54"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
@@ -5709,7 +5828,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -5717,7 +5836,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -5725,9 +5844,9 @@
       <c r="F16" s="54"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
@@ -5739,7 +5858,7 @@
       <c r="F17" s="54"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="30"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
@@ -5751,7 +5870,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="30"/>
       <c r="C19" s="33"/>
       <c r="D19" s="32" t="s">
@@ -5763,7 +5882,7 @@
       <c r="F19" s="54"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="32" t="s">
@@ -5775,7 +5894,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
       <c r="C21" s="33"/>
       <c r="D21" s="32"/>
@@ -5783,9 +5902,9 @@
       <c r="F21" s="54"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33" t="s">
@@ -5797,7 +5916,7 @@
       <c r="F22" s="54"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="30"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -5805,7 +5924,7 @@
       <c r="F23" s="54"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="30" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5940,7 @@
       <c r="F24" s="54"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
       <c r="C25" s="32" t="s">
         <v>77</v>
@@ -5837,7 +5956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="30"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
@@ -5849,7 +5968,7 @@
       <c r="F26" s="54"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
@@ -5861,7 +5980,7 @@
       <c r="F27" s="54"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32" t="s">
@@ -5875,7 +5994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
       <c r="C29" s="32" t="s">
         <v>78</v>
@@ -5889,7 +6008,7 @@
       <c r="F29" s="54"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="30"/>
       <c r="C30" s="32" t="s">
         <v>84</v>
@@ -5903,7 +6022,7 @@
       <c r="F30" s="54"/>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
@@ -5915,19 +6034,19 @@
       <c r="F31" s="54"/>
       <c r="G31" s="39"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="30"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="39"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32" t="s">
@@ -5939,7 +6058,7 @@
       <c r="F33" s="54"/>
       <c r="G33" s="39"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
       <c r="C34" s="32" t="s">
         <v>85</v>
@@ -5948,12 +6067,12 @@
         <v>86</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="39"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32" t="s">
@@ -5965,7 +6084,7 @@
       <c r="F35" s="54"/>
       <c r="G35" s="39"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
@@ -5977,7 +6096,7 @@
       <c r="F36" s="54"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
       <c r="C37" s="32" t="s">
         <v>90</v>
@@ -5991,7 +6110,7 @@
       <c r="F37" s="54"/>
       <c r="G37" s="39"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32" t="s">
@@ -6003,7 +6122,7 @@
       <c r="F38" s="54"/>
       <c r="G38" s="39"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="30"/>
       <c r="C39" s="32" t="s">
         <v>96</v>
@@ -6017,7 +6136,7 @@
       <c r="F39" s="54"/>
       <c r="G39" s="39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="30"/>
       <c r="C40" s="32" t="s">
         <v>99</v>
@@ -6033,7 +6152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="30"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32" t="s">
@@ -6045,7 +6164,7 @@
       <c r="F41" s="54"/>
       <c r="G41" s="39"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="30"/>
       <c r="C42" s="32" t="s">
         <v>101</v>
@@ -6059,7 +6178,7 @@
       <c r="F42" s="54"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="30"/>
       <c r="C43" s="42">
         <v>0.70833333333333337</v>
@@ -6073,7 +6192,7 @@
       <c r="F43" s="54"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="30"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -6081,7 +6200,7 @@
       <c r="F44" s="54"/>
       <c r="G44" s="39"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="30"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -6089,7 +6208,7 @@
       <c r="F45" s="54"/>
       <c r="G45" s="39"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="30"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -6097,7 +6216,7 @@
       <c r="F46" s="54"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="30"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -6105,7 +6224,7 @@
       <c r="F47" s="54"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="30"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -6113,7 +6232,7 @@
       <c r="F48" s="54"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="30"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -6142,31 +6261,31 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>53</v>
       </c>
@@ -6178,9 +6297,9 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="4">
         <v>50</v>
@@ -6188,9 +6307,9 @@
       <c r="D4" s="4"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
@@ -6198,9 +6317,9 @@
       <c r="D5" s="4"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -6208,9 +6327,9 @@
       <c r="D6" s="4"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -6218,9 +6337,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
@@ -6228,9 +6347,9 @@
       <c r="D8" s="4"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="4">
         <v>50</v>
@@ -6238,9 +6357,9 @@
       <c r="D9" s="4"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4">
         <v>70</v>
@@ -6248,33 +6367,33 @@
       <c r="D10" s="4"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4">
         <v>40</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4">
         <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="51" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
@@ -6282,9 +6401,9 @@
       <c r="D13" s="4"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -6292,9 +6411,9 @@
       <c r="D14" s="4"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
         <v>20</v>
@@ -6302,7 +6421,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
@@ -6314,9 +6433,9 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
@@ -6324,9 +6443,9 @@
       <c r="D17" s="4"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -6334,73 +6453,73 @@
       <c r="D18" s="4"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="19"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="19"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="19"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="27" t="s">
         <v>52</v>
       </c>
@@ -6433,14 +6552,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="155">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>청소비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가전제품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,37 +136,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임시융통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저축금액+임시융통으로 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저축금액으로 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리보증금+담보대출로 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담보대출로 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담보대출에서 임시융통 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최종잔액</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임시융통</t>
-  </si>
-  <si>
     <t>저축금액으로 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부동산통해서 이사업체, 청소업체 알아보기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부동산통해서 담보대출은행 알아보기. 필요서류 준비. 대출일자는 어떻게 되는지 확인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아파트관리비내역 출력(이사올 분에게 전달해야 함.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이삿짐 반출확인서 수령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수령완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,14 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보증금(전세보증금-전세자금대출-계약금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보증금+계약금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인터넷-이사에따른 변경신청.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://smartstore.naver.com/molokin/products/4790186299?NaPm=ct%3Dk5je3tog%7Cci%3De7874828445197092f8a39a7662699f515c244aa%7Ctr%3Dslsl%7Csn%3D792281%7Cic%3D%7Chk%3D359ce6e64f68b46cd3e026018e742a33793e1826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라니방 선반(좌측)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,10 +535,6 @@
   </si>
   <si>
     <t>https://search.shopping.naver.com/detail/detail.nhn?nv_mid=20575230599&amp;NaPm=ct%3Dk5rp74d4%7Cci%3D997e3e08cb76efb4fd27b215686a7d20d4cc71dc%7Ctr%3Dslct%7Csn%3D95694%7Chk%3Dedf0753cc1620929d36d20c8f5fe796c94626e3a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -637,104 +582,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 전체 3억5백 - 대출 5천5백 - 계약금 3천)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>잔액지급 및 영수증 수령(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3억2천2백만원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전세계약금 3천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전세잔금 2억2천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>담보대출 7천2백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,6 +640,183 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>우리보증금+담보대출로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리보증금에서 임시융통 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보대출 확인 및 은행업무처리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보대출관련서류 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사업체 알아보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금지불.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축금액+약관대출로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보증금잔액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>잔액지급 및 영수증 수령(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3억2천2백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). 확보금액 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>담보대출 1억 4천 +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">계약보증금 3천 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전세잔금 1억5천2백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)으로 처리</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트관리비내역 출력(해당금액을 이사올 분에게 전달해야 함.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보증금잔액(전세보증금-전세자금대출-계약금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납입금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30만원 잔금.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -802,7 +826,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +922,22 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1041,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,73 +1247,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5028,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5041,321 +5090,344 @@
     <col min="3" max="3" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.69921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.8984375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="9.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="K2" s="55" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="L2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="K3" s="3" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="64">
         <v>30500</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="K4" s="3" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>4300</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="64">
         <v>5500</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="K5" s="3" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>6700</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="73">
+        <v>148</v>
+      </c>
+      <c r="C6" s="60">
         <v>3000</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="K6" s="3" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="4">
-        <f>L4+L5</f>
+      <c r="M6" s="4">
+        <f>M4+M5</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="75">
+        <v>151</v>
+      </c>
+      <c r="C7" s="64">
         <f>C4-C5-C6</f>
         <v>22000</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="K7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="34">
-        <f>L3-(L4+L5)</f>
+      <c r="D7" s="65"/>
+      <c r="E7" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="L7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="34">
+        <f>M3-(M4+M5)</f>
         <v>32200</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="66">
+        <v>102</v>
+      </c>
+      <c r="C8" s="57">
         <v>4154</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="46"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="66">
+        <v>103</v>
+      </c>
+      <c r="C9" s="57">
         <v>2650</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="66">
+        <v>104</v>
+      </c>
+      <c r="C10" s="57">
         <v>400</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="73">
         <f>C6+C7+C8+C9+C10</f>
         <v>32204</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D11" s="74"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="73">
         <v>14000</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D12" s="74"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="68">
+        <v>136</v>
+      </c>
+      <c r="C13" s="73">
         <v>3800</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D13" s="74"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="70">
+        <v>23</v>
+      </c>
+      <c r="C14" s="75">
         <f>C11+C12</f>
         <v>46204</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="57" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="57" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57" t="s">
+      <c r="C17" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="57"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="78"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>116</v>
+        <v>33</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="57"/>
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="78"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="78"/>
       <c r="C19" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E19" s="12">
         <f>C8+C9+C10</f>
         <v>7204</v>
       </c>
       <c r="F19" s="12">
-        <f>C6+C7</f>
-        <v>25000</v>
-      </c>
-      <c r="G19" s="13">
+        <f>C6</f>
+        <v>3000</v>
+      </c>
+      <c r="G19" s="12">
+        <f>C7</f>
+        <v>22000</v>
+      </c>
+      <c r="H19" s="13">
         <f>C12</f>
         <v>14000</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I19" s="13">
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
         <v>11</v>
       </c>
@@ -5363,279 +5435,265 @@
         <v>1000</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E20" s="44">
         <f>E19-C20</f>
         <v>6204</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I20" s="10"/>
+      <c r="J20" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="25">
-        <f>L4-C20</f>
+        <f>M4-C20</f>
         <v>3300</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E21" s="44">
         <f>E20-C21</f>
         <v>2904</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I21" s="10"/>
+      <c r="J21" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="36">
-        <f>L5</f>
+        <f>M5</f>
         <v>6700</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E22" s="44">
-        <f>E21-(C22-H19)</f>
+        <f>E21-(C22-I19)</f>
         <v>4</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="45">
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="45">
         <v>0</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J22" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9">
-        <f>L7</f>
+        <f>M7</f>
         <v>32200</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="44">
         <v>0</v>
       </c>
-      <c r="G23" s="45">
-        <f>G19-(C23-F19)</f>
+      <c r="G23" s="44">
+        <f>(F19+G19)-(C23-H19)</f>
         <v>6800</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="4">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="45">
+      <c r="G24" s="44">
         <f>G23-C24</f>
-        <v>6250</v>
+        <v>6200</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I24" s="10"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <f>G24-C25</f>
-        <v>6050</v>
+        <v>6020</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I25" s="10"/>
+      <c r="J25" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <f>G25-C26</f>
-        <v>5870</v>
+        <v>5820</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I26" s="10"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="4">
-        <v>15</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>56</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="D27" s="23"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="45">
+      <c r="G27" s="44">
         <f>G26-C27</f>
-        <v>5855</v>
+        <v>5020</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4">
-        <v>800</v>
+      <c r="I27" s="10"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="22">
+        <f>SUM(C20:C27)</f>
+        <v>44980</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="45">
-        <f>G27-C28</f>
-        <v>5055</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22">
-        <f>SUM(C20:C28)</f>
-        <v>44945</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="5">
-        <f>MIN(E19:E28)</f>
+      <c r="E28" s="5">
+        <f>MIN(E19:E27)</f>
         <v>4</v>
       </c>
-      <c r="F29" s="5">
-        <f>MIN(F19:F28)</f>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <f>MIN(G19:G27)</f>
+        <v>5020</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MIN(H19:H27)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
-        <f>MIN(G19:G28)</f>
-        <v>5055</v>
-      </c>
-      <c r="H29" s="20">
-        <f>MAX(H19:H28)</f>
+      <c r="I28" s="20">
+        <f>MAX(I19:I27)</f>
         <v>3800</v>
       </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="59">
-        <f>SUM(E29:G29)-H29</f>
-        <v>1259</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="66">
+        <f>SUM(E28:H28)-I28</f>
+        <v>1224</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5645,13 +5703,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G49"/>
+  <dimension ref="B2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5666,273 +5724,318 @@
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
-      <c r="B8" s="30" t="s">
+    <row r="8" spans="2:8" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="54"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="79"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="F11" s="54"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F12" s="54"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="F13" s="54"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="30" t="s">
-        <v>140</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="F15" s="54"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="F16" s="54"/>
       <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>73</v>
+      <c r="B18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="30"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F19" s="54"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="30"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F21" s="54"/>
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
-        <v>75</v>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="30"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="F23" s="54"/>
       <c r="G23" s="39"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="B24" s="30"/>
       <c r="C24" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>72</v>
@@ -5942,28 +6045,24 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
-      <c r="C25" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F25" s="54"/>
-      <c r="G25" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="30"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="39"/>
@@ -5972,35 +6071,33 @@
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="D28" s="32" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F28" s="54"/>
-      <c r="G28" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
-      <c r="C29" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="C29" s="32"/>
       <c r="D29" s="32" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>79</v>
@@ -6010,21 +6107,21 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="30"/>
-      <c r="C30" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="C30" s="32"/>
       <c r="D30" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="30"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="32" t="s">
         <v>82</v>
       </c>
@@ -6041,19 +6138,21 @@
         <v>82</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="30"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="D33" s="32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="39"/>
@@ -6061,190 +6160,112 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
       <c r="C34" s="32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F34" s="54"/>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="39"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="D36" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
-      <c r="C37" s="32" t="s">
-        <v>90</v>
+      <c r="C37" s="42">
+        <v>0.70833333333333337</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="39"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="54"/>
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="30"/>
-      <c r="C39" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="54"/>
       <c r="G39" s="39"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="30"/>
-      <c r="C40" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>105</v>
-      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="54"/>
-      <c r="G40" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="30"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="54"/>
       <c r="G41" s="39"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="30"/>
-      <c r="C42" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="54"/>
       <c r="G42" s="39"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="30"/>
-      <c r="C43" s="42">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="54"/>
       <c r="G43" s="39"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="30"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="30"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="39"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="30"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="30"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="30"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="30"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F43">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6255,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6267,27 +6288,31 @@
     <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.8984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="5" max="5" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.8984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -6295,135 +6320,156 @@
       <c r="D3" s="4">
         <v>100</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4">
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="4"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4">
         <v>20</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4">
         <v>50</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="4"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4">
         <v>70</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4">
         <v>40</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="4">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4">
         <v>15</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="4"/>
+      <c r="F12" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="51"/>
-    </row>
-    <row r="14" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4">
         <v>20</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
         <v>50</v>
@@ -6431,97 +6477,112 @@
       <c r="D16" s="4">
         <v>50</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="19" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="4"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="4"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="4"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="4"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="4"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="19"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="4"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="19"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="4"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="19"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="4"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="19"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E28" s="4"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" s="12">
         <f>SUM(C3:C28)</f>
@@ -6529,19 +6590,19 @@
       </c>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
-        <v>150</v>
-      </c>
-      <c r="E29" s="19"/>
+        <v>194</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-    <hyperlink ref="E12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="F12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
+    <hyperlink ref="F19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6552,7 +6613,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,35 +554,6 @@
   </si>
   <si>
     <t>잔금(집가격-계약금-중도금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>전세잔금 수령(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2억2천만원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천5백 - 계약금 3천)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -815,6 +786,35 @@
   </si>
   <si>
     <t>30만원 잔금.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전세잔금 수령(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2억2천2백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 계약금 3천)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,8 +1250,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1259,8 +1292,20 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1268,62 +1313,14 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5080,7 +5077,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5101,38 +5098,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="L2" s="62" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="L2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="63"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="78" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5144,16 +5141,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="77">
         <v>30500</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5165,16 +5162,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="64">
-        <v>5500</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="C5" s="77">
+        <v>5300</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5184,20 +5181,20 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="60">
+        <v>147</v>
+      </c>
+      <c r="C6" s="75">
         <v>3000</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5208,21 +5205,21 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="64">
+        <v>150</v>
+      </c>
+      <c r="C7" s="77">
         <f>C4-C5-C6</f>
-        <v>22000</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="59" t="s">
+        <v>22200</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="L7" s="3" t="s">
         <v>131</v>
       </c>
@@ -5235,16 +5232,16 @@
       <c r="B8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="68">
         <v>4154</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
@@ -5252,16 +5249,16 @@
       <c r="B9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="68">
         <v>2650</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
@@ -5269,16 +5266,16 @@
       <c r="B10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="68">
         <v>400</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5286,119 +5283,119 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="70">
         <f>C6+C7+C8+C9+C10</f>
-        <v>32204</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+        <v>32404</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="70">
         <v>14000</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="73">
+        <v>135</v>
+      </c>
+      <c r="C13" s="70">
         <v>3800</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="72">
         <f>C11+C12</f>
-        <v>46204</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+        <v>46404</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="78" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78" t="s">
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="78"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="78"/>
+        <v>143</v>
+      </c>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="78"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
@@ -5415,7 +5412,7 @@
       </c>
       <c r="G19" s="12">
         <f>C7</f>
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="H19" s="13">
         <f>C12</f>
@@ -5425,7 +5422,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="78"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5494,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -5514,14 +5511,14 @@
       </c>
       <c r="G23" s="44">
         <f>(F19+G19)-(C23-H19)</f>
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H23" s="45">
         <v>0</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -5538,7 +5535,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="44">
         <f>G23-C24</f>
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5558,12 +5555,12 @@
       <c r="F25" s="9"/>
       <c r="G25" s="44">
         <f>G24-C25</f>
-        <v>6020</v>
+        <v>6220</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -5580,7 +5577,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="44">
         <f>G25-C26</f>
-        <v>5820</v>
+        <v>6020</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5598,7 +5595,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="44">
         <f>G26-C27</f>
-        <v>5020</v>
+        <v>5220</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -5620,7 +5617,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5">
         <f>MIN(G19:G27)</f>
-        <v>5020</v>
+        <v>5220</v>
       </c>
       <c r="H28" s="5">
         <f>MIN(H19:H27)</f>
@@ -5633,21 +5630,21 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66">
+      <c r="C29" s="74"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="61">
         <f>SUM(E28:H28)-I28</f>
-        <v>1224</v>
-      </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+        <v>1424</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -5661,6 +5658,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5677,23 +5691,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5703,13 +5700,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5724,7 +5721,7 @@
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
         <v>31</v>
       </c>
@@ -5744,7 +5741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="48" t="s">
         <v>59</v>
       </c>
@@ -5758,7 +5755,7 @@
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
         <v>60</v>
       </c>
@@ -5772,7 +5769,7 @@
       </c>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
         <v>61</v>
       </c>
@@ -5786,7 +5783,7 @@
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
         <v>62</v>
       </c>
@@ -5800,7 +5797,7 @@
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>49</v>
       </c>
@@ -5814,9 +5811,9 @@
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="2:8" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -5824,52 +5821,53 @@
         <v>43</v>
       </c>
       <c r="F8" s="53"/>
-      <c r="G8" s="80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="30" t="s">
+      <c r="G8" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="53" t="s">
+        <v>130</v>
+      </c>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="79" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="53" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="50"/>
-      <c r="H10" s="79"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
@@ -5881,7 +5879,7 @@
       <c r="F12" s="54"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
         <v>107</v>
       </c>
@@ -5895,7 +5893,7 @@
       <c r="F13" s="54"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
@@ -5907,7 +5905,7 @@
       <c r="F14" s="54"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="32" t="s">
@@ -5919,7 +5917,7 @@
       <c r="F15" s="54"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32" t="s">
@@ -5996,7 +5994,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="39"/>
@@ -6062,7 +6060,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="39"/>
@@ -6088,7 +6086,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="39"/>
@@ -6304,7 +6302,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>118</v>
@@ -6416,7 +6414,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +815,18 @@
       </rPr>
       <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 계약금 3천)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40만원 잔금.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커튼, 카페트 클린토피아에 맡기기.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,74 +1265,74 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5076,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5098,38 +5110,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="L2" s="57" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="L2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="58"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5141,10 +5153,10 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="65">
         <v>30500</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
@@ -5162,10 +5174,10 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="65">
         <v>5300</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
@@ -5183,10 +5195,10 @@
       <c r="B6" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="61">
         <v>3000</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="60" t="s">
         <v>100</v>
       </c>
@@ -5207,11 +5219,11 @@
       <c r="B7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="65">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="60" t="s">
         <v>101</v>
       </c>
@@ -5232,10 +5244,10 @@
       <c r="B8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="58">
         <v>4154</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="60"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
@@ -5249,10 +5261,10 @@
       <c r="B9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="58">
         <v>2650</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
@@ -5266,10 +5278,10 @@
       <c r="B10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="58">
         <v>400</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="60"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
@@ -5283,11 +5295,11 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="74">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="60"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
@@ -5299,10 +5311,10 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="74">
         <v>14000</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5314,10 +5326,10 @@
       <c r="B13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="74">
         <v>3800</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5329,11 +5341,11 @@
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="76">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="60"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5342,41 +5354,41 @@
       <c r="J14" s="60"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="59"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="16" t="s">
         <v>33</v>
       </c>
@@ -5392,10 +5404,10 @@
       <c r="I18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="59"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
       </c>
@@ -5422,7 +5434,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5630,19 +5642,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="61">
+      <c r="C29" s="78"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="67">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="15" t="s">
         <v>134</v>
       </c>
@@ -5658,23 +5670,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5691,6 +5686,23 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5700,13 +5712,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G43"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5839,7 +5851,7 @@
       </c>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="2:7" s="79" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>127</v>
       </c>
@@ -5931,61 +5943,63 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>66</v>
+      <c r="D17" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>52</v>
+        <v>128</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="32" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F19" s="54"/>
-      <c r="G19" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="30"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="D20" s="32" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F20" s="54"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
@@ -5994,7 +6008,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="39"/>
@@ -6006,49 +6020,49 @@
         <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="G22" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="30"/>
-      <c r="C23" s="32" t="s">
-        <v>69</v>
-      </c>
+      <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F23" s="54"/>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="30"/>
       <c r="C24" s="32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="D25" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="39"/>
@@ -6060,7 +6074,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="39"/>
@@ -6072,33 +6086,33 @@
         <v>73</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
-      <c r="C28" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="C28" s="32"/>
       <c r="D28" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F28" s="54"/>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="D29" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="39"/>
@@ -6110,47 +6124,45 @@
         <v>77</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="30"/>
-      <c r="C31" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="30"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="D32" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="54"/>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="30"/>
-      <c r="C33" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="C33" s="32"/>
       <c r="D33" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="39"/>
@@ -6158,64 +6170,70 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
       <c r="C34" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F34" s="54"/>
-      <c r="G34" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
-      <c r="C35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="D35" s="32" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F35" s="54"/>
-      <c r="G35" s="39"/>
+      <c r="G35" s="39" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
-      <c r="C36" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
-      <c r="C37" s="42">
-        <v>0.70833333333333337</v>
+      <c r="C37" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="39"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="F38" s="54"/>
       <c r="G38" s="39"/>
     </row>
@@ -6259,11 +6277,19 @@
       <c r="F43" s="54"/>
       <c r="G43" s="39"/>
     </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="30"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="39"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F44">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6277,7 +6303,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6285,7 +6311,7 @@
     <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="1"/>
@@ -6330,9 +6356,15 @@
       <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="4">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
@@ -6588,7 +6620,7 @@
       </c>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="19"/>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
     <sheet name="02.일정" sheetId="2" r:id="rId2"/>
-    <sheet name="03.가전가구" sheetId="3" r:id="rId3"/>
+    <sheet name="03.가전가구및이사비용" sheetId="3" r:id="rId3"/>
     <sheet name="04.이사구조" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="165">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>세금(취득세+주민세+지방세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사비용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,14 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>납입금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30만원 잔금.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>전세잔금 수령(</t>
     </r>
@@ -818,15 +806,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40만원 잔금.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-03-07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>커튼, 카페트 클린토피아에 맡기기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전/가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠이사. 박현정 실장(010-2640-0024). 농협(351-1007-0505-23, 예금주:이성구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주노디자인가구. 전상진(010-3300-9023). 국민은행(592201-01-489971, 예금주:전상진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한사무용가구. 오길환(010-2726-7696)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Room. 안경수(010-9909-2214).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Room. 안경수(010-9909-2214).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,9 +1275,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,14 +1293,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1283,56 +1356,17 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2820,15 +2854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>169331</xdr:rowOff>
+      <xdr:rowOff>59265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>372533</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2837,7 +2871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="5079998"/>
+          <a:off x="9702800" y="4969932"/>
           <a:ext cx="728133" cy="2726269"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5086,10 +5120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5110,38 +5147,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="L2" s="63" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="L2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="64"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5153,16 +5190,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="78">
         <v>30500</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5174,16 +5211,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="78">
         <v>5300</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5193,20 +5230,20 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="61">
+        <v>146</v>
+      </c>
+      <c r="C6" s="76">
         <v>3000</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5217,23 +5254,23 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="65">
+        <v>149</v>
+      </c>
+      <c r="C7" s="78">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="L7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" s="34">
         <f>M3-(M4+M5)</f>
@@ -5242,52 +5279,52 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="58">
+        <v>101</v>
+      </c>
+      <c r="C8" s="69">
         <v>4154</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="58">
+        <v>102</v>
+      </c>
+      <c r="C9" s="69">
         <v>2650</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="58">
+        <v>103</v>
+      </c>
+      <c r="C10" s="69">
         <v>400</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5295,124 +5332,124 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="71">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="71">
         <v>14000</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="74">
+        <v>134</v>
+      </c>
+      <c r="C13" s="71">
         <v>3800</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="76">
+        <v>22</v>
+      </c>
+      <c r="C14" s="73">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="60"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="79"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>146</v>
+      <c r="F18" s="54" t="s">
+        <v>145</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="79"/>
+        <v>142</v>
+      </c>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="79"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="12">
         <f>C8+C9+C10</f>
@@ -5434,7 +5471,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="79"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5444,7 +5481,7 @@
         <v>1000</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="44">
         <f>E19-C20</f>
@@ -5455,7 +5492,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -5467,7 +5504,7 @@
         <v>3300</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="44">
         <f>E20-C21</f>
@@ -5478,7 +5515,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
@@ -5490,7 +5527,7 @@
         <v>6700</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="44">
         <f>E21-(C22-I19)</f>
@@ -5503,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -5515,7 +5552,7 @@
         <v>32200</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="44">
@@ -5530,7 +5567,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -5541,7 +5578,7 @@
         <v>600</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -5555,13 +5592,13 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4">
         <v>180</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -5572,18 +5609,18 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <v>200</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -5597,7 +5634,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
         <v>800</v>
@@ -5642,21 +5679,21 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67">
+      <c r="B29" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="62">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -5670,6 +5707,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5686,39 +5740,25 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5735,492 +5775,492 @@
   <sheetData>
     <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>130</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G4" s="50"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G5" s="50"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>130</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G6" s="50"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>130</v>
+        <v>39</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="56" t="s">
-        <v>132</v>
+        <v>42</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="55" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="2:7" s="57" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>130</v>
+      <c r="F10" s="52" t="s">
+        <v>129</v>
       </c>
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="54"/>
+        <v>136</v>
+      </c>
+      <c r="F11" s="53"/>
       <c r="G11" s="39"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="54"/>
+        <v>104</v>
+      </c>
+      <c r="F12" s="53"/>
       <c r="G12" s="39"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="54"/>
+        <v>96</v>
+      </c>
+      <c r="F13" s="53"/>
       <c r="G13" s="39"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
       <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="30"/>
       <c r="C15" s="33"/>
       <c r="D15" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="54"/>
+        <v>98</v>
+      </c>
+      <c r="F15" s="53"/>
       <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="F16" s="53"/>
       <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="54"/>
+        <v>153</v>
+      </c>
+      <c r="F17" s="53"/>
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="D19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="54"/>
+        <v>62</v>
+      </c>
+      <c r="F19" s="53"/>
       <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="30"/>
       <c r="C20" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="54"/>
+        <v>94</v>
+      </c>
+      <c r="F20" s="53"/>
       <c r="G20" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="30"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="54"/>
+        <v>55</v>
+      </c>
+      <c r="F21" s="53"/>
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="30"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="54"/>
+        <v>148</v>
+      </c>
+      <c r="F22" s="53"/>
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="30"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="30"/>
       <c r="C24" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
       <c r="C25" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="54"/>
+        <v>71</v>
+      </c>
+      <c r="F25" s="53"/>
       <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="30"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="54"/>
+        <v>151</v>
+      </c>
+      <c r="F27" s="53"/>
       <c r="G27" s="39"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="54"/>
+        <v>77</v>
+      </c>
+      <c r="F28" s="53"/>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
       <c r="C29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="E29" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="54"/>
+        <v>147</v>
+      </c>
+      <c r="F29" s="53"/>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="30"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="54"/>
+        <v>78</v>
+      </c>
+      <c r="F30" s="53"/>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="54"/>
+        <v>79</v>
+      </c>
+      <c r="F31" s="53"/>
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="30"/>
       <c r="C32" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="30"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="54"/>
+        <v>83</v>
+      </c>
+      <c r="F33" s="53"/>
       <c r="G33" s="39"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
       <c r="C34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="E34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
       <c r="C35" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="54"/>
+        <v>95</v>
+      </c>
+      <c r="F35" s="53"/>
       <c r="G35" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="54"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="53"/>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
       <c r="C37" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="E37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="39"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -6229,12 +6269,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="54"/>
+        <v>84</v>
+      </c>
+      <c r="F38" s="53"/>
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -6242,7 +6282,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="54"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="39"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -6250,7 +6290,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="54"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="39"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -6258,7 +6298,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="54"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="39"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -6266,7 +6306,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="54"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="39"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -6274,7 +6314,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="54"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="39"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -6282,7 +6322,7 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="54"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="39"/>
     </row>
   </sheetData>
@@ -6293,53 +6333,64 @@
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.8984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="31.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="60.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>38</v>
+      <c r="D2" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="4">
         <v>100</v>
@@ -6347,162 +6398,230 @@
       <c r="E3" s="4">
         <v>100</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="F3" s="4">
+        <v>100</v>
+      </c>
+      <c r="G3" s="4">
+        <f>IFERROR( (E3-F3), "")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G28" si="0">IFERROR( (E4-F4), "")</f>
+        <v>40</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="4">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="4">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="4">
         <v>70</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="11" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="4">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19" t="s">
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="C12" s="4">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="80"/>
+    </row>
+    <row r="15" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4">
         <v>20</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4">
-        <v>50</v>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="80"/>
+    </row>
+    <row r="16" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="4">
         <v>50</v>
@@ -6510,129 +6629,194 @@
       <c r="E16" s="4">
         <v>50</v>
       </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="80"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="4">
+    </row>
+    <row r="20" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="4">
+        <v>180</v>
+      </c>
+      <c r="E20" s="4">
+        <v>135</v>
+      </c>
+      <c r="F20" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="4"/>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="53"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="80"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="53"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="80"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="53"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="80"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="53"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="80"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="53"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="80"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="53"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="19"/>
-      <c r="C27" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="80"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="53"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="19"/>
-      <c r="C28" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="80"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="53"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="12">
-        <f>SUM(C3:C28)</f>
-        <v>470</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="80"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="59"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
-        <v>241</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="19"/>
+        <v>650</v>
+      </c>
+      <c r="E29" s="12">
+        <f>SUM(E3:E28)</f>
+        <v>376</v>
+      </c>
+      <c r="F29" s="12">
+        <f>SUM(F3:F28)</f>
+        <v>181</v>
+      </c>
+      <c r="G29" s="12">
+        <f>SUM(G3:G28)</f>
+        <v>195</v>
+      </c>
+      <c r="H29" s="80"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B29:C29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
-    <hyperlink ref="F19" r:id="rId1"/>
+    <hyperlink ref="H12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
+    <hyperlink ref="H19" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6643,8 +6827,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6655,7 +6839,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -855,6 +855,70 @@
   </si>
   <si>
     <t>The Room. 안경수(010-9909-2214).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 19시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 17시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 이사중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18일 11시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세탁기 : 62 x 62 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고 : 92 x 92 x 180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치냉장고 : 70 x 65 x 175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식탁 : 120 x 80 x 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 세로 x 높이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,6 +1360,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,11 +1438,8 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5125,8 +5198,8 @@
   </sheetPr>
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5147,38 +5220,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="L2" s="58" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="L2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="59"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5190,16 +5263,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="82">
         <v>30500</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5211,16 +5284,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="82">
         <v>5300</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5232,18 +5305,18 @@
       <c r="B6" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="80">
         <v>3000</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="61" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5256,19 +5329,19 @@
       <c r="B7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="82">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="61" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="3" t="s">
         <v>130</v>
       </c>
@@ -5281,16 +5354,16 @@
       <c r="B8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="73">
         <v>4154</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
@@ -5298,16 +5371,16 @@
       <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="73">
         <v>2650</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
@@ -5315,16 +5388,16 @@
       <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="73">
         <v>400</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5332,100 +5405,100 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="75">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="75">
         <v>14000</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="75">
         <v>3800</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="77">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="60"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
@@ -5441,10 +5514,10 @@
       <c r="I18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="60"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="60"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5471,7 +5544,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="60"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5679,19 +5752,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="62">
+      <c r="C29" s="79"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="66">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="15" t="s">
         <v>133</v>
       </c>
@@ -5755,10 +5828,10 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5906,16 +5979,18 @@
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
@@ -6343,10 +6418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6358,11 +6433,12 @@
     <col min="5" max="5" width="5.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.3984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="9" style="61" customWidth="1"/>
+    <col min="9" max="9" width="60.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
         <v>157</v>
       </c>
@@ -6382,10 +6458,13 @@
         <v>154</v>
       </c>
       <c r="H2" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="53" t="s">
         <v>158</v>
       </c>
@@ -6405,11 +6484,14 @@
         <f>IFERROR( (E3-F3), "")</f>
         <v>0</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
         <v>158</v>
       </c>
@@ -6426,14 +6508,17 @@
         <v>7</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G28" si="0">IFERROR( (E4-F4), "")</f>
+        <f t="shared" ref="G4:G20" si="0">IFERROR( (E4-F4), "")</f>
         <v>40</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="58" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
         <v>158</v>
       </c>
@@ -6446,9 +6531,12 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
         <v>158</v>
       </c>
@@ -6461,9 +6549,12 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="80"/>
-    </row>
-    <row r="7" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="58"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
         <v>158</v>
       </c>
@@ -6476,9 +6567,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="53" t="s">
         <v>158</v>
       </c>
@@ -6491,9 +6585,12 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
         <v>158</v>
       </c>
@@ -6506,9 +6603,12 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="58"/>
+    </row>
+    <row r="10" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
         <v>158</v>
       </c>
@@ -6521,9 +6621,12 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
         <v>158</v>
       </c>
@@ -6543,11 +6646,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
         <v>158</v>
       </c>
@@ -6560,11 +6666,12 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
         <v>158</v>
       </c>
@@ -6584,9 +6691,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
         <v>158</v>
       </c>
@@ -6599,9 +6709,12 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="58"/>
+    </row>
+    <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="53" t="s">
         <v>158</v>
       </c>
@@ -6614,9 +6727,12 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="58"/>
+    </row>
+    <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
         <v>158</v>
       </c>
@@ -6636,11 +6752,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="58" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
         <v>158</v>
       </c>
@@ -6653,9 +6772,12 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
         <v>158</v>
       </c>
@@ -6668,9 +6790,12 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="80"/>
-    </row>
-    <row r="19" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
         <v>158</v>
       </c>
@@ -6683,11 +6808,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="59" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="53" t="s">
         <v>159</v>
       </c>
@@ -6707,87 +6835,96 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="58" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="53"/>
       <c r="C21" s="19"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="80"/>
-    </row>
-    <row r="22" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="60"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="53"/>
       <c r="C22" s="19"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="60"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="53"/>
       <c r="C23" s="19"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="60"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="53"/>
       <c r="C24" s="19"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H24" s="60"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="53"/>
       <c r="C25" s="19"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H25" s="60"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="53"/>
       <c r="C26" s="19"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H26" s="60"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="53"/>
       <c r="C27" s="19"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="80"/>
-    </row>
-    <row r="28" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H27" s="60"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="53"/>
       <c r="C28" s="19"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="80"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="58" t="s">
+      <c r="H28" s="60"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -6804,7 +6941,8 @@
         <f>SUM(G3:G28)</f>
         <v>195</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6812,8 +6950,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
-    <hyperlink ref="H19" r:id="rId1"/>
+    <hyperlink ref="I12" display="https://smartstore.naver.com/mosdurn/products/4674994157?n_media=11068&amp;n_rank=9&amp;n_ad_group=grp-a001-02-000000012700595&amp;n_ad=nad-a001-02-000000075516132&amp;n_campaign_type=2&amp;n_mall_pid=4674994157&amp;NaPm=ct%3Dk5jivukw%7Cci%3D0zi0000UVM9skAY7FLpP%7Ctr%3Dpla%7Chk%"/>
+    <hyperlink ref="I19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6825,10 +6963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6836,7 +6974,33 @@
     <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.69921875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R2" s="84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -1372,74 +1372,74 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1463,8 +1463,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4234</xdr:rowOff>
     </xdr:from>
@@ -1617,8 +1617,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="5400000">
-            <a:off x="2512483" y="1401237"/>
-            <a:ext cx="2535767" cy="59266"/>
+            <a:off x="2260008" y="1656633"/>
+            <a:ext cx="3043638" cy="56343"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1812,7 +1812,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5084232" y="946150"/>
+            <a:off x="5152660" y="1294992"/>
             <a:ext cx="2137833" cy="63500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2547,7 +2547,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3814445" y="946151"/>
+            <a:off x="3805892" y="1287571"/>
             <a:ext cx="393700" cy="65617"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3318,16 +3318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>499534</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601134</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>141819</xdr:rowOff>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3336,8 +3336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3833284" y="228600"/>
-          <a:ext cx="804333" cy="654052"/>
+          <a:off x="5213351" y="182032"/>
+          <a:ext cx="797983" cy="673101"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3393,16 +3393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397935</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414866</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3411,8 +3411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3869268" y="1132417"/>
-          <a:ext cx="999066" cy="740834"/>
+          <a:off x="6138333" y="738716"/>
+          <a:ext cx="1007533" cy="709084"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3468,16 +3468,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>52918</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357718</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>391584</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>118535</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35984</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3486,8 +3486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191251" y="1094316"/>
-          <a:ext cx="1005416" cy="654052"/>
+          <a:off x="3786718" y="675215"/>
+          <a:ext cx="999066" cy="738720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4279,15 +4279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>61381</xdr:rowOff>
+      <xdr:colOff>65618</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>395817</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:colOff>404284</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4296,8 +4296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195484" y="1987548"/>
-          <a:ext cx="1005416" cy="1314451"/>
+          <a:off x="6136218" y="1788580"/>
+          <a:ext cx="999066" cy="1504951"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4927,6 +4927,168 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275379</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3704379" y="563035"/>
+          <a:ext cx="1477221" cy="63498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364173</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4944639" y="355712"/>
+          <a:ext cx="414762" cy="76093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326178</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3755178" y="3390901"/>
+          <a:ext cx="1087755" cy="275166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5198,8 +5360,8 @@
   </sheetPr>
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5220,38 +5382,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="L2" s="62" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="L2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="63"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5263,10 +5425,10 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="70">
         <v>30500</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
@@ -5284,10 +5446,10 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="70">
         <v>5300</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
@@ -5305,10 +5467,10 @@
       <c r="B6" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="66">
         <v>3000</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="65" t="s">
         <v>99</v>
       </c>
@@ -5329,11 +5491,11 @@
       <c r="B7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="70">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="65" t="s">
         <v>100</v>
       </c>
@@ -5354,10 +5516,10 @@
       <c r="B8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="63">
         <v>4154</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
@@ -5371,10 +5533,10 @@
       <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="63">
         <v>2650</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
@@ -5388,10 +5550,10 @@
       <c r="B10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="63">
         <v>400</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
@@ -5405,11 +5567,11 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="79">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
@@ -5421,10 +5583,10 @@
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="79">
         <v>14000</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="65"/>
       <c r="F12" s="65"/>
       <c r="G12" s="65"/>
@@ -5436,10 +5598,10 @@
       <c r="B13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="79">
         <v>3800</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="65"/>
       <c r="F13" s="65"/>
       <c r="G13" s="65"/>
@@ -5451,11 +5613,11 @@
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="81">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="65"/>
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
@@ -5464,41 +5626,41 @@
       <c r="J14" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="64"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
@@ -5514,10 +5676,10 @@
       <c r="I18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="64"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="64"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5544,7 +5706,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="64"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5752,19 +5914,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66">
+      <c r="C29" s="83"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="72">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="15" t="s">
         <v>133</v>
       </c>
@@ -5780,23 +5942,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5813,6 +5958,23 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5828,10 +5990,10 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6921,10 +7083,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -6965,8 +7127,8 @@
   </sheetPr>
   <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6976,7 +7138,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="18:18" x14ac:dyDescent="0.4">
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="62" t="s">
         <v>180</v>
       </c>
     </row>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,6 @@
   </si>
   <si>
     <t>포장이사 비용 잔금정산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량스티커, 음식물쓰레기카드 반납</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -773,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-02-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>전세잔금 수령(</t>
     </r>
@@ -919,6 +911,14 @@
   </si>
   <si>
     <t>가로 x 세로 x 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량스티커, 음식물쓰레기카드 반납. 폐기물처리방법 확인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,14 +1375,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1390,56 +1435,11 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5360,7 +5360,7 @@
   </sheetPr>
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
@@ -5382,38 +5382,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="L2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="L2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5425,16 +5425,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="83">
         <v>30500</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5446,16 +5446,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="83">
         <v>5300</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5465,20 +5465,20 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="66">
+        <v>145</v>
+      </c>
+      <c r="C6" s="81">
         <v>3000</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5489,23 +5489,23 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="70">
+        <v>148</v>
+      </c>
+      <c r="C7" s="83">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="L7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7" s="34">
         <f>M3-(M4+M5)</f>
@@ -5514,52 +5514,52 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="63">
+        <v>100</v>
+      </c>
+      <c r="C8" s="74">
         <v>4154</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="63">
+        <v>101</v>
+      </c>
+      <c r="C9" s="74">
         <v>2650</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="63">
+        <v>102</v>
+      </c>
+      <c r="C10" s="74">
         <v>400</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5567,119 +5567,119 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="76">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="76">
         <v>14000</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="79">
+        <v>133</v>
+      </c>
+      <c r="C13" s="76">
         <v>3800</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="78">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="84"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="84"/>
+        <v>141</v>
+      </c>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5706,7 +5706,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="84"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4">
         <v>180</v>
@@ -5844,7 +5844,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -5914,21 +5914,21 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="72">
+      <c r="C29" s="80"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="67">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -5942,6 +5942,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5958,23 +5975,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,11 +5989,11 @@
   </sheetPr>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6022,7 +6022,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>53</v>
@@ -6038,7 +6038,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="50"/>
     </row>
@@ -6052,7 +6052,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="50"/>
     </row>
@@ -6066,7 +6066,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="50"/>
     </row>
@@ -6080,7 +6080,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -6094,90 +6094,92 @@
         <v>39</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="52" t="s">
+        <v>128</v>
+      </c>
       <c r="G8" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="50"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="39"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="39"/>
@@ -6201,7 +6203,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="39"/>
@@ -6213,28 +6215,28 @@
         <v>51</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
@@ -6271,7 +6273,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="39" t="s">
@@ -6297,7 +6299,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="39"/>
@@ -6363,7 +6365,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="39"/>
@@ -6389,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="39"/>
@@ -6467,7 +6469,7 @@
         <v>54</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="39" t="s">
@@ -6583,7 +6585,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6602,13 +6604,13 @@
   <sheetData>
     <row r="2" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>37</v>
@@ -6617,18 +6619,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>44</v>
@@ -6647,18 +6649,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -6674,18 +6676,18 @@
         <v>40</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -6694,16 +6696,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I5" s="58"/>
     </row>
     <row r="6" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -6712,16 +6714,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -6730,16 +6732,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -6748,16 +6750,16 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
@@ -6766,16 +6768,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4">
         <v>70</v>
@@ -6784,16 +6786,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
         <v>40</v>
@@ -6809,18 +6811,18 @@
         <v>30</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
@@ -6830,15 +6832,15 @@
       <c r="G12" s="4"/>
       <c r="H12" s="60"/>
       <c r="I12" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -6854,16 +6856,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -6872,16 +6874,16 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
@@ -6890,13 +6892,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>45</v>
@@ -6915,18 +6917,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -6935,16 +6937,16 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6953,16 +6955,16 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>
@@ -6971,18 +6973,18 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="4">
         <v>180</v>
@@ -6999,7 +7001,7 @@
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -7083,10 +7085,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -7127,7 +7129,7 @@
   </sheetPr>
   <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -7139,27 +7141,27 @@
   <sheetData>
     <row r="2" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R2" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R6" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -661,6 +661,138 @@
   </si>
   <si>
     <t>계약보증금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트관리비내역 출력(해당금액을 이사올 분에게 전달해야 함.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보증금잔액(전세보증금-전세자금대출-계약금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커튼, 카페트 클린토피아에 맡기기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전/가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로젠이사. 박현정 실장(010-2640-0024). 농협(351-1007-0505-23, 예금주:이성구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주노디자인가구. 전상진(010-3300-9023). 국민은행(592201-01-489971, 예금주:전상진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한사무용가구. 오길환(010-2726-7696)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Room. 안경수(010-9909-2214).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Room. 안경수(010-9909-2214).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 19시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 17시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16일 이사중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18일 11시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세탁기 : 62 x 62 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉장고 : 92 x 92 x 180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치냉장고 : 70 x 65 x 175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식탁 : 120 x 80 x 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 x 세로 x 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량스티커, 음식물쓰레기카드 반납. 폐기물처리방법 확인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,7 +854,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">계약보증금 3천 </t>
+      <t xml:space="preserve">현금 1억8천2백(전세계약금 3천 </t>
     </r>
     <r>
       <rPr>
@@ -745,7 +877,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>전세잔금 1억5천2백</t>
+      <t xml:space="preserve">전세잔금 1억5천2백) </t>
     </r>
     <r>
       <rPr>
@@ -758,14 +890,6 @@
       </rPr>
       <t>)으로 처리</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아파트관리비내역 출력(해당금액을 이사올 분에게 전달해야 함.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보증금잔액(전세보증금-전세자금대출-계약금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,132 +917,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 계약금 3천)</t>
+      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 전세계약금 3천)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커튼, 카페트 클린토피아에 맡기기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가전/가구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로젠이사. 박현정 실장(010-2640-0024). 농협(351-1007-0505-23, 예금주:이성구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주노디자인가구. 전상진(010-3300-9023). 국민은행(592201-01-489971, 예금주:전상진)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대한사무용가구. 오길환(010-2726-7696)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Room. 안경수(010-9909-2214).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Room. 안경수(010-9909-2214).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배달시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16일 19시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16일 17시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16일 이사중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이사후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18일 11시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세탁기 : 62 x 62 x 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉장고 : 92 x 92 x 180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치냉장고 : 70 x 65 x 175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식탁 : 120 x 80 x 75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가로 x 세로 x 높이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량스티커, 음식물쓰레기카드 반납. 폐기물처리방법 확인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,71 +1375,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5361,7 +5361,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5382,38 +5382,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="L2" s="63" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="L2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="64"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5425,16 +5425,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="70">
         <v>30500</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5446,16 +5446,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="70">
         <v>5300</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5467,18 +5467,18 @@
       <c r="B6" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="66">
         <v>3000</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5489,21 +5489,21 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="83">
+        <v>147</v>
+      </c>
+      <c r="C7" s="70">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
       <c r="L7" s="3" t="s">
         <v>129</v>
       </c>
@@ -5516,16 +5516,16 @@
       <c r="B8" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="63">
         <v>4154</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
@@ -5533,16 +5533,16 @@
       <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="63">
         <v>2650</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
@@ -5550,16 +5550,16 @@
       <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="63">
         <v>400</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5567,100 +5567,100 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="79">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="79">
         <v>14000</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="79">
         <v>3800</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="81">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="76"/>
+      <c r="E17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65" t="s">
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="65"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
@@ -5676,10 +5676,10 @@
       <c r="I18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="65"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5706,7 +5706,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4">
         <v>180</v>
@@ -5914,19 +5914,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67">
+      <c r="C29" s="83"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="72">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="15" t="s">
         <v>132</v>
       </c>
@@ -5942,23 +5942,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5975,6 +5958,23 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5990,10 +5990,10 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6002,7 +6002,7 @@
     <col min="2" max="2" width="9.8984375" style="41" customWidth="1"/>
     <col min="3" max="3" width="5.59765625" style="28" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="84.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" style="28" customWidth="1"/>
     <col min="7" max="7" width="53.09765625" style="40" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
@@ -6222,14 +6222,14 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="39"/>
@@ -6273,7 +6273,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="39" t="s">
@@ -6299,7 +6299,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="39"/>
@@ -6365,7 +6365,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="39"/>
@@ -6391,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="39"/>
@@ -6604,7 +6604,7 @@
   <sheetData>
     <row r="2" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>14</v>
@@ -6619,10 +6619,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>116</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>44</v>
@@ -6649,15 +6649,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>106</v>
@@ -6676,15 +6676,15 @@
         <v>40</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>107</v>
@@ -6696,13 +6696,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I5" s="58"/>
     </row>
     <row r="6" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>118</v>
@@ -6714,13 +6714,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>108</v>
@@ -6732,13 +6732,13 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>109</v>
@@ -6750,13 +6750,13 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>110</v>
@@ -6768,13 +6768,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>113</v>
@@ -6786,13 +6786,13 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>120</v>
@@ -6811,15 +6811,15 @@
         <v>30</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>121</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>122</v>
@@ -6856,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>115</v>
@@ -6874,13 +6874,13 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>119</v>
@@ -6892,13 +6892,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>45</v>
@@ -6917,15 +6917,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>112</v>
@@ -6937,13 +6937,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>123</v>
@@ -6955,13 +6955,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>114</v>
@@ -6973,7 +6973,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I19" s="59" t="s">
         <v>124</v>
@@ -6981,10 +6981,10 @@
     </row>
     <row r="20" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D20" s="4">
         <v>180</v>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -7085,10 +7085,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="64"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -7141,27 +7141,27 @@
   <sheetData>
     <row r="2" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R2" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -18,7 +18,7 @@
     <sheet name="04.이사구조" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.일정'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.일정'!$B$2:$G$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1375,14 +1375,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1390,56 +1435,11 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5382,38 +5382,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="L2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="L2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="69"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5425,16 +5425,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="83">
         <v>30500</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5446,16 +5446,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="83">
         <v>5300</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5467,18 +5467,18 @@
       <c r="B6" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="81">
         <v>3000</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="65" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5491,19 +5491,19 @@
       <c r="B7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="83">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="L7" s="3" t="s">
         <v>129</v>
       </c>
@@ -5516,16 +5516,16 @@
       <c r="B8" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="74">
         <v>4154</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
@@ -5533,16 +5533,16 @@
       <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="74">
         <v>2650</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
@@ -5550,16 +5550,16 @@
       <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="74">
         <v>400</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5567,100 +5567,100 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="76">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="76">
         <v>14000</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="76">
         <v>3800</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="78">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="84" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="84"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
@@ -5676,10 +5676,10 @@
       <c r="I18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J18" s="84"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="84"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5706,7 +5706,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="84"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5914,19 +5914,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="72">
+      <c r="C29" s="80"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="67">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="15" t="s">
         <v>132</v>
       </c>
@@ -5942,6 +5942,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -5958,23 +5975,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5993,7 +5993,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6565,7 +6565,7 @@
       <c r="G44" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G2"/>
+  <autoFilter ref="B2:G38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F44">
@@ -7085,10 +7085,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -18,7 +18,7 @@
     <sheet name="04.이사구조" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.일정'!$B$2:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02.일정'!$B$2:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="184">
   <si>
     <t>우리자본</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,31 +326,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신봉하나부동산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>살던곳 아파트키 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부동산 중개수수료 지급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아파트열쇠 수령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -797,6 +781,83 @@
   </si>
   <si>
     <r>
+      <t>전세잔금 수령(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2억2천2백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 전세계약금 3천). 
+집주인으로부터 받을 금액(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1억5천5백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 전체 3억5백 - 우리은행 1억2천 - 전세계약금 3천) 
+은행으로부터 받을 금액(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6천7백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 우리은행 1억2천 - 대출 5천3백) . 대출금액은 단기연장된만큼 조금 늘 수 있음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>잔액지급 및 영수증 수령(</t>
     </r>
     <r>
@@ -820,7 +881,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). 확보금액 (</t>
+      <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). 
+확보금액 (</t>
     </r>
     <r>
       <rPr>
@@ -893,32 +955,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>전세잔금 수령(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2억2천2백만원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 전체 3억5백 - 대출 5천3백 - 전세계약금 3천)</t>
-    </r>
+    <t>계약서사본, 정산서 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살던곳 아파트키 전달. 도어락번호전달(000000*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;준비물&gt;
+주민등록등본, 가족관계증명서, 상환영수증 혹은 집주인이 상환은행으로부터
+받은 상환문자, 계약서, 나와 집사람 신분증, 인감도장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상환영수증 혹은 집주인이 상환은행으로부터 받은 상환문자 챙기기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 16일 방문예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1503,12 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5465,14 +5534,14 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="81">
         <v>3000</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="66" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="66"/>
       <c r="G6" s="66"/>
@@ -5489,7 +5558,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="83">
         <f>C4-C5-C6</f>
@@ -5497,7 +5566,7 @@
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="66" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" s="66"/>
       <c r="G7" s="66"/>
@@ -5505,7 +5574,7 @@
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
       <c r="L7" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M7" s="34">
         <f>M3-(M4+M5)</f>
@@ -5514,7 +5583,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="74">
         <v>4154</v>
@@ -5531,7 +5600,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="74">
         <v>2650</v>
@@ -5548,7 +5617,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" s="74">
         <v>400</v>
@@ -5596,7 +5665,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="76">
         <v>3800</v>
@@ -5665,16 +5734,16 @@
         <v>32</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J18" s="65"/>
     </row>
@@ -5775,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -5802,7 +5871,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -5827,7 +5896,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4">
         <v>180</v>
@@ -5844,7 +5913,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -5928,7 +5997,7 @@
       <c r="H29" s="68"/>
       <c r="I29" s="69"/>
       <c r="J29" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -5987,13 +6056,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6022,7 +6091,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>53</v>
@@ -6038,7 +6107,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" s="50"/>
     </row>
@@ -6052,7 +6121,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="50"/>
     </row>
@@ -6066,7 +6135,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G5" s="50"/>
     </row>
@@ -6080,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -6094,13 +6163,13 @@
         <v>39</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -6108,145 +6177,161 @@
         <v>42</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G11" s="50"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
+      <c r="B13" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="39"/>
+      <c r="E13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="39"/>
+      <c r="E15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="39"/>
+      <c r="E16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="39"/>
+      <c r="E17" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
+      <c r="B18" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="30" t="s">
@@ -6273,7 +6358,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="39" t="s">
@@ -6299,7 +6384,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="39"/>
@@ -6335,7 +6420,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
       <c r="C25" s="32" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>72</v>
@@ -6358,17 +6443,19 @@
       <c r="F26" s="53"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="30"/>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>180</v>
+      <c r="E27" s="85" t="s">
+        <v>175</v>
       </c>
       <c r="F27" s="53"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="30"/>
@@ -6376,109 +6463,107 @@
       <c r="D28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>77</v>
+      <c r="E28" s="85" t="s">
+        <v>182</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="30"/>
-      <c r="C29" s="32" t="s">
-        <v>75</v>
-      </c>
+      <c r="C29" s="32"/>
       <c r="D29" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="39.6" x14ac:dyDescent="0.4">
       <c r="B30" s="30"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>179</v>
+      </c>
       <c r="D30" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>176</v>
       </c>
       <c r="F30" s="53"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="86" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="30"/>
       <c r="C31" s="32"/>
       <c r="D31" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="39"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="30"/>
-      <c r="C32" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="C32" s="32"/>
       <c r="D32" s="32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="30"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="32" t="s">
+        <v>82</v>
+      </c>
       <c r="D33" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="39"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="30"/>
-      <c r="C34" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="C34" s="32"/>
       <c r="D34" s="32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="30"/>
-      <c r="C35" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="C35" s="32"/>
       <c r="D35" s="32" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F35" s="53"/>
-      <c r="G35" s="39" t="s">
-        <v>57</v>
-      </c>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D36" s="32" t="s">
         <v>54</v>
       </c>
@@ -6486,41 +6571,47 @@
         <v>90</v>
       </c>
       <c r="F36" s="53"/>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="30"/>
-      <c r="C37" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="C37" s="32"/>
       <c r="D37" s="32" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="39"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
-      <c r="C38" s="42">
-        <v>0.70833333333333337</v>
+      <c r="C38" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="30"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="19"/>
+      <c r="C39" s="42">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="F39" s="53"/>
       <c r="G39" s="39"/>
     </row>
@@ -6556,24 +6647,16 @@
       <c r="F43" s="53"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="30"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="39"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:G38"/>
+  <autoFilter ref="B2:G39"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F43">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6585,7 +6668,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6604,13 +6687,13 @@
   <sheetData>
     <row r="2" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>37</v>
@@ -6619,18 +6702,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>44</v>
@@ -6649,18 +6732,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -6676,18 +6759,18 @@
         <v>40</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -6696,16 +6779,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I5" s="58"/>
     </row>
     <row r="6" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -6714,16 +6797,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -6732,16 +6815,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -6750,16 +6833,16 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
@@ -6768,16 +6851,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4">
         <v>70</v>
@@ -6786,16 +6869,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4">
         <v>40</v>
@@ -6811,18 +6894,18 @@
         <v>30</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
@@ -6832,15 +6915,15 @@
       <c r="G12" s="4"/>
       <c r="H12" s="60"/>
       <c r="I12" s="59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -6856,16 +6939,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -6874,16 +6957,16 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
@@ -6892,13 +6975,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="60" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>45</v>
@@ -6917,18 +7000,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -6937,16 +7020,16 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6955,16 +7038,16 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>
@@ -6973,18 +7056,18 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D20" s="4">
         <v>180</v>
@@ -7001,7 +7084,7 @@
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -7129,7 +7212,7 @@
   </sheetPr>
   <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -7141,27 +7224,27 @@
   <sheetData>
     <row r="2" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R2" s="62" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R5" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -1438,77 +1438,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3071,15 +3071,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247862</xdr:colOff>
+      <xdr:colOff>239395</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>385445</xdr:colOff>
+      <xdr:colOff>376978</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3088,8 +3088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3719195" y="4624917"/>
-          <a:ext cx="804333" cy="1164167"/>
+          <a:off x="3668395" y="5365750"/>
+          <a:ext cx="797983" cy="1333501"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3149,15 +3149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>205318</xdr:colOff>
+      <xdr:colOff>213785</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>29632</xdr:rowOff>
+      <xdr:rowOff>105832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:colOff>351368</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3166,8 +3166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3676651" y="5808132"/>
-          <a:ext cx="804333" cy="975785"/>
+          <a:off x="3642785" y="6709832"/>
+          <a:ext cx="797983" cy="1102785"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5158,6 +5158,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>262466</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>300567</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="모서리가 둥근 직사각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3691466" y="4665133"/>
+          <a:ext cx="698501" cy="677333"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>22</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>선반</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5451,38 +5526,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="L2" s="63" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="L2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="64"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5494,16 +5569,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="72">
         <v>30500</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5515,16 +5590,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="72">
         <v>5300</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5536,18 +5611,18 @@
       <c r="B6" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="68">
         <v>3000</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5560,19 +5635,19 @@
       <c r="B7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="72">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="66" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="L7" s="3" t="s">
         <v>125</v>
       </c>
@@ -5585,16 +5660,16 @@
       <c r="B8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="65">
         <v>4154</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
@@ -5602,16 +5677,16 @@
       <c r="B9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="65">
         <v>2650</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
@@ -5619,16 +5694,16 @@
       <c r="B10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="65">
         <v>400</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5636,100 +5711,100 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="81">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="81">
         <v>14000</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="81">
         <v>3800</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="83">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="65" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65" t="s">
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="65"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
@@ -5745,10 +5820,10 @@
       <c r="I18" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="65"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5775,7 +5850,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5983,19 +6058,19 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67">
+      <c r="C29" s="85"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="74">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="69"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="15" t="s">
         <v>128</v>
       </c>
@@ -6011,23 +6086,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -6044,6 +6102,23 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,11 +6133,11 @@
   </sheetPr>
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6449,7 +6524,7 @@
       <c r="D27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="63" t="s">
         <v>175</v>
       </c>
       <c r="F27" s="53"/>
@@ -6463,7 +6538,7 @@
       <c r="D28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="63" t="s">
         <v>182</v>
       </c>
       <c r="F28" s="53"/>
@@ -6489,11 +6564,11 @@
       <c r="D30" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="63" t="s">
         <v>176</v>
       </c>
       <c r="F30" s="53"/>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="64" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7168,10 +7243,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="64"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -7212,8 +7287,8 @@
   </sheetPr>
   <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01.자금계획" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,6 @@
   </si>
   <si>
     <t>주민센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전입신고 및 확정일자 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -780,6 +776,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살던곳 아파트키 전달. 도어락번호전달(000000*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;준비물&gt;
+주민등록등본, 가족관계증명서, 상환영수증 혹은 집주인이 상환은행으로부터
+받은 상환문자, 계약서, 나와 집사람 신분증, 인감도장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상환영수증 혹은 집주인이 상환은행으로부터 받은 상환문자 챙기기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 16일 방문예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약서사본, 정산서 준비, 키 및 음식쓰레기카드 전달.(관리사무소?/이사올분?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>전세잔금 수령(</t>
     </r>
@@ -787,7 +813,7 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -829,7 +855,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 전체 3억5백 - 우리은행 1억2천 - 전세계약금 3천) 
-은행으로부터 받을 금액(</t>
+우리은행으로부터 받을 금액(</t>
     </r>
     <r>
       <rPr>
@@ -854,6 +880,10 @@
       </rPr>
       <t xml:space="preserve"> : 우리은행 1억2천 - 대출 5천3백) . 대출금액은 단기연장된만큼 조금 늘 수 있음.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전입신고 및 확정일자 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -882,29 +912,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). 
-확보금액 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>담보대출 1억 4천 +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+전세자금대출(</t>
     </r>
     <r>
       <rPr>
@@ -916,18 +924,19 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">현금 1억8천2백(전세계약금 3천 </t>
+      <t>1억4천만원</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="9"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">+ </t>
+      <t>).
+집주인으로부터 받을 금액(</t>
     </r>
     <r>
       <rPr>
@@ -939,7 +948,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">전세잔금 1억5천2백) </t>
+      <t>1억5천5백만원</t>
     </r>
     <r>
       <rPr>
@@ -950,38 +959,32 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)으로 처리</t>
+      <t xml:space="preserve">).
+우리은행으로부터 받을 금액(6천7백만원중 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약서사본, 정산서 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>살던곳 아파트키 전달. 도어락번호전달(000000*)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;준비물&gt;
-주민등록등본, 가족관계증명서, 상환영수증 혹은 집주인이 상환은행으로부터
-받은 상환문자, 계약서, 나와 집사람 신분증, 인감도장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상환영수증 혹은 집주인이 상환은행으로부터 받은 상환문자 챙기기.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월 16일 방문예정</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2천7백만원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +996,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,22 +1092,6 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1444,14 +1431,59 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1459,56 +1491,11 @@
     <xf numFmtId="176" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5505,7 +5492,7 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -5526,38 +5513,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="L2" s="70" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="L2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="71"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5569,16 +5556,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="85">
         <v>30500</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5590,16 +5577,16 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="85">
         <v>5300</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,20 +5596,20 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="68">
+        <v>140</v>
+      </c>
+      <c r="C6" s="83">
         <v>3000</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
@@ -5633,23 +5620,23 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="72">
+        <v>142</v>
+      </c>
+      <c r="C7" s="85">
         <f>C4-C5-C6</f>
         <v>22200</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="L7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M7" s="34">
         <f>M3-(M4+M5)</f>
@@ -5658,52 +5645,52 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="65">
+        <v>95</v>
+      </c>
+      <c r="C8" s="76">
         <v>4154</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="L8" s="18"/>
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="65">
+        <v>96</v>
+      </c>
+      <c r="C9" s="76">
         <v>2650</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
       <c r="L9" s="18"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="65">
+        <v>97</v>
+      </c>
+      <c r="C10" s="76">
         <v>400</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
       <c r="L10" s="18"/>
       <c r="M10" s="17"/>
     </row>
@@ -5711,119 +5698,119 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="78">
         <f>C6+C7+C8+C9+C10</f>
         <v>32404</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="78">
         <v>14000</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="81">
+        <v>128</v>
+      </c>
+      <c r="C13" s="78">
         <v>3800</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="80">
         <f>C11+C12</f>
         <v>46404</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="86" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86" t="s">
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="86"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="86"/>
+        <v>136</v>
+      </c>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B19" s="86"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="16" t="s">
         <v>29</v>
       </c>
@@ -5850,7 +5837,7 @@
         <f>C13</f>
         <v>3800</v>
       </c>
-      <c r="J19" s="86"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -5919,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -5946,7 +5933,7 @@
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -5971,7 +5958,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4">
         <v>180</v>
@@ -5988,7 +5975,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -6058,21 +6045,21 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74">
+      <c r="C29" s="82"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69">
         <f>SUM(E28:H28)-I28</f>
         <v>1424</v>
       </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29" s="2"/>
     </row>
@@ -6086,6 +6073,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="J17:J19"/>
@@ -6102,23 +6106,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6133,11 +6120,11 @@
   </sheetPr>
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -6166,7 +6153,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>53</v>
@@ -6182,7 +6169,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="50"/>
     </row>
@@ -6196,7 +6183,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="50"/>
     </row>
@@ -6210,7 +6197,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="50"/>
     </row>
@@ -6224,7 +6211,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="50"/>
     </row>
@@ -6238,13 +6225,13 @@
         <v>39</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="2:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -6252,85 +6239,85 @@
         <v>42</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
       <c r="E10" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="50"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="52" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="50"/>
     </row>
@@ -6344,7 +6331,7 @@
         <v>70</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="50"/>
     </row>
@@ -6355,10 +6342,10 @@
         <v>51</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G15" s="50"/>
     </row>
@@ -6369,32 +6356,32 @@
         <v>51</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="48" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52" t="s">
@@ -6404,7 +6391,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="50"/>
     </row>
@@ -6433,7 +6420,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="39" t="s">
@@ -6459,7 +6446,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="39"/>
@@ -6495,7 +6482,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="30"/>
       <c r="C25" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>72</v>
@@ -6525,11 +6512,11 @@
         <v>72</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="39" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -6539,7 +6526,7 @@
         <v>72</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="39"/>
@@ -6551,25 +6538,25 @@
         <v>72</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="2:7" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="52.8" x14ac:dyDescent="0.4">
       <c r="B30" s="30"/>
       <c r="C30" s="32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="64" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -6629,7 +6616,7 @@
         <v>83</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="39"/>
@@ -6637,13 +6624,13 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="30"/>
       <c r="C36" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="39" t="s">
@@ -6657,7 +6644,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="39"/>
@@ -6665,13 +6652,13 @@
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="30"/>
       <c r="C38" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="E38" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="39"/>
@@ -6762,13 +6749,13 @@
   <sheetData>
     <row r="2" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>37</v>
@@ -6777,18 +6764,18 @@
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>44</v>
@@ -6807,18 +6794,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -6834,18 +6821,18 @@
         <v>40</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -6854,16 +6841,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="58"/>
     </row>
     <row r="6" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
@@ -6872,16 +6859,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -6890,16 +6877,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" s="58"/>
     </row>
     <row r="8" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -6908,16 +6895,16 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4">
         <v>50</v>
@@ -6926,16 +6913,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="4">
         <v>70</v>
@@ -6944,16 +6931,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4">
         <v>40</v>
@@ -6969,18 +6956,18 @@
         <v>30</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
@@ -6990,15 +6977,15 @@
       <c r="G12" s="4"/>
       <c r="H12" s="60"/>
       <c r="I12" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -7014,16 +7001,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -7032,16 +7019,16 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
@@ -7050,13 +7037,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>45</v>
@@ -7075,18 +7062,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -7095,16 +7082,16 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="58"/>
     </row>
     <row r="18" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7113,16 +7100,16 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" s="58"/>
     </row>
     <row r="19" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>
@@ -7131,18 +7118,18 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4">
         <v>180</v>
@@ -7159,7 +7146,7 @@
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -7243,10 +7230,10 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="71"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="12">
         <f>SUM(D3:D28)</f>
         <v>650</v>
@@ -7287,7 +7274,7 @@
   </sheetPr>
   <dimension ref="R2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -7299,27 +7286,27 @@
   <sheetData>
     <row r="2" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R2" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="18:18" x14ac:dyDescent="0.4">
       <c r="R6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/이사관련.xlsx
+++ b/WorkShop/01.docs/이사관련.xlsx
@@ -912,7 +912,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : 전체 4억3천2백 - 계약금 4천3백 - 중도금 6천7백). 
-전세자금대출(</t>
+주택담보대출(</t>
     </r>
     <r>
       <rPr>
@@ -6121,10 +6121,10 @@
   <dimension ref="B2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -7275,7 +7275,7 @@
   <dimension ref="R2:R6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
